--- a/moving_files/Sales-2.xlsx
+++ b/moving_files/Sales-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharc\Documents\GitHub\machine_learning\moving_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1038FA5E-0AB5-463B-A33E-7675513203BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECA30A-B17A-4711-8268-A9A6E778DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D469746A-FB0D-417D-99BD-69F12A449DDB}"/>
   </bookViews>
@@ -37,19 +37,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="10">
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Venda</t>
-  </si>
-  <si>
-    <t>Cliente</t>
   </si>
   <si>
     <t>Fabrica J</t>
@@ -66,15 +54,34 @@
   <si>
     <t>Fabrica E</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +107,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,35 +432,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD102AD-D3D5-41FC-B566-D9B1C2C757B8}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,21 +468,21 @@
         <v>44755</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>3155</v>
+        <v>6889</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,21 +490,21 @@
         <v>44756</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>4717</v>
+        <v>9328</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,21 +512,21 @@
         <v>44757</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4997</v>
+        <v>7760</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,21 +534,21 @@
         <v>44758</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1449</v>
+        <v>6653</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,7 +556,7 @@
         <v>44759</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -555,7 +564,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6492</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,15 +572,15 @@
         <v>44760</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4448</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,15 +588,15 @@
         <v>44761</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1832</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,15 +604,15 @@
         <v>44762</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao C</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6621</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,7 +620,7 @@
         <v>44763</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -619,7 +628,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4317</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,15 +636,15 @@
         <v>44764</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3590</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,15 +652,15 @@
         <v>44765</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Galpao C</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7583</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,15 +668,15 @@
         <v>44766</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9222</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,15 +684,15 @@
         <v>44767</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5281</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,7 +700,7 @@
         <v>44768</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -699,7 +708,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5958</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,15 +716,15 @@
         <v>44769</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2574</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,15 +732,15 @@
         <v>44770</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8746</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,15 +748,15 @@
         <v>44771</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6551</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,15 +764,15 @@
         <v>44772</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7391</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,15 +780,15 @@
         <v>44773</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1186</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,15 +796,15 @@
         <v>44774</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3919</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,15 +812,15 @@
         <v>44775</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2077</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,15 +828,15 @@
         <v>44776</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao C</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4391</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +844,7 @@
         <v>44777</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -843,7 +852,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5166</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,7 +860,7 @@
         <v>44778</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -859,7 +868,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9922</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,15 +876,15 @@
         <v>44779</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2483</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,15 +892,15 @@
         <v>44780</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2026</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,15 +908,15 @@
         <v>44781</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao C</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5284</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,15 +924,15 @@
         <v>44782</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6420</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,15 +940,15 @@
         <v>44783</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2036</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,15 +956,15 @@
         <v>44784</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2782</v>
+        <v>9681</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,15 +972,15 @@
         <v>44785</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1990</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,15 +988,15 @@
         <v>44786</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3951</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,15 +1004,15 @@
         <v>44787</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6326</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1020,7 @@
         <v>44788</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1019,7 +1028,7 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6157</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,15 +1036,15 @@
         <v>44789</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao C</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2720</v>
+        <v>8502</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,15 +1052,15 @@
         <v>44790</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5589</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,15 +1068,15 @@
         <v>44791</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9720</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,15 +1084,15 @@
         <v>44792</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7029</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,15 +1100,15 @@
         <v>44793</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5954</v>
+        <v>9571</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1116,7 @@
         <v>44794</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1115,7 +1124,7 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4969</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1132,7 @@
         <v>44795</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1131,7 +1140,7 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5005</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,15 +1148,15 @@
         <v>44796</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2015</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,15 +1164,15 @@
         <v>44797</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6468</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,15 +1180,15 @@
         <v>44798</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8496</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,7 +1196,7 @@
         <v>44799</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1195,7 +1204,7 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3739</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,15 +1212,15 @@
         <v>44800</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Galpao C</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6924</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,15 +1228,15 @@
         <v>44801</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4700</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,15 +1244,15 @@
         <v>44802</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao C</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4981</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,15 +1260,15 @@
         <v>44803</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6964</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,15 +1276,15 @@
         <v>44804</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7485</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,15 +1292,15 @@
         <v>44805</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1398</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1308,7 @@
         <v>44806</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1307,7 +1316,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3004</v>
+        <v>9443</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,7 +1324,7 @@
         <v>44807</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1323,7 +1332,7 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5209</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,15 +1340,15 @@
         <v>44808</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1878</v>
+        <v>8099</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,15 +1356,15 @@
         <v>44809</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9267</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,15 +1372,15 @@
         <v>44810</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao C</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8288</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,7 +1388,7 @@
         <v>44811</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1387,7 +1396,7 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1157</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,15 +1404,15 @@
         <v>44812</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9475</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,15 +1420,15 @@
         <v>44813</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1242</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,15 +1436,15 @@
         <v>44814</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao C</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7403</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,15 +1452,15 @@
         <v>44815</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Galpao C</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9700</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,15 +1468,15 @@
         <v>44816</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8150</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,7 +1484,7 @@
         <v>44817</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1483,7 +1492,7 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2392</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,15 +1500,15 @@
         <v>44818</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1070</v>
+        <v>8630</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,15 +1516,15 @@
         <v>44819</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6677</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,15 +1532,15 @@
         <v>44820</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D130" ca="1" si="3">RANDBETWEEN(1000,10000)</f>
-        <v>1019</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,15 +1548,15 @@
         <v>44821</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3688</v>
+        <v>9484</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,15 +1564,15 @@
         <v>44822</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9983</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,15 +1580,15 @@
         <v>44823</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2327</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,15 +1596,15 @@
         <v>44824</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6525</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,7 +1612,7 @@
         <v>44825</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1611,7 +1620,7 @@
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8703</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,7 +1628,7 @@
         <v>44826</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6999</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,15 +1644,15 @@
         <v>44827</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6693</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,15 +1660,15 @@
         <v>44828</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6604</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,15 +1676,15 @@
         <v>44829</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2724</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,7 +1692,7 @@
         <v>44830</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1691,7 +1700,7 @@
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9064</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,15 +1708,15 @@
         <v>44831</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Galpao C</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6187</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,15 +1724,15 @@
         <v>44832</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7679</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,7 +1740,7 @@
         <v>44833</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1739,7 +1748,7 @@
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9699</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,15 +1756,15 @@
         <v>44834</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5101</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,15 +1772,15 @@
         <v>44835</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6221</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,15 +1788,15 @@
         <v>44836</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3017</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,15 +1804,15 @@
         <v>44837</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9310</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,15 +1820,15 @@
         <v>44838</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7148</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,7 +1836,7 @@
         <v>44839</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1835,7 +1844,7 @@
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4745</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,15 +1852,15 @@
         <v>44840</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Galpao C</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8440</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,15 +1868,15 @@
         <v>44841</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9590</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,7 +1884,7 @@
         <v>44842</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1883,7 +1892,7 @@
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4040</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,15 +1900,15 @@
         <v>44843</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Galpao C</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3954</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,15 +1916,15 @@
         <v>44844</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2530</v>
+        <v>9847</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,7 +1932,7 @@
         <v>44845</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1931,7 +1940,7 @@
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6779</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,15 +1948,15 @@
         <v>44846</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7154</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,15 +1964,15 @@
         <v>44847</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2619</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,7 +1980,7 @@
         <v>44848</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1979,7 +1988,7 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5322</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,15 +1996,15 @@
         <v>44849</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4681</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,15 +2012,15 @@
         <v>44850</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9942</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,7 +2028,7 @@
         <v>44851</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2027,7 +2036,7 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9164</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,15 +2044,15 @@
         <v>44852</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2351</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,15 +2060,15 @@
         <v>44853</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8937</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,15 +2076,15 @@
         <v>44854</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5270</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,15 +2092,15 @@
         <v>44855</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9808</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,7 +2108,7 @@
         <v>44856</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2107,7 +2116,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8485</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,15 +2124,15 @@
         <v>44857</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9545</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2140,7 @@
         <v>44858</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2139,7 +2148,7 @@
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7968</v>
+        <v>8764</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,7 +2156,7 @@
         <v>44859</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2155,7 +2164,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1900</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,15 +2172,15 @@
         <v>44860</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4726</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,15 +2188,15 @@
         <v>44861</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2465</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,15 +2204,15 @@
         <v>44862</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Galpao C</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9458</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,15 +2220,15 @@
         <v>44863</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Galpao C</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9572</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,15 +2236,15 @@
         <v>44864</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Galpao C</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7498</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,15 +2252,15 @@
         <v>44865</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5427</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,15 +2268,15 @@
         <v>44866</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4759</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,7 +2284,7 @@
         <v>44867</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2283,7 +2292,7 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4525</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,15 +2300,15 @@
         <v>44868</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1966</v>
+        <v>9949</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,15 +2316,15 @@
         <v>44869</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2813</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,15 +2332,15 @@
         <v>44870</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2172</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,15 +2348,15 @@
         <v>44871</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8576</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,15 +2364,15 @@
         <v>44872</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5345</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,15 +2380,15 @@
         <v>44873</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7587</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,15 +2396,15 @@
         <v>44874</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4468</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,15 +2412,15 @@
         <v>44875</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1144</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,15 +2428,15 @@
         <v>44876</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4268</v>
+        <v>8596</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,15 +2444,15 @@
         <v>44877</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8600</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,7 +2460,7 @@
         <v>44878</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2459,7 +2468,7 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7933</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,15 +2476,15 @@
         <v>44879</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Galpao B</v>
       </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3347</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,15 +2492,15 @@
         <v>44880</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6060</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,15 +2508,15 @@
         <v>44881</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica X</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1194</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,15 +2524,15 @@
         <v>44882</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Galpao B</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7540</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,15 +2540,15 @@
         <v>44883</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1666</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,15 +2556,15 @@
         <v>44884</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C142" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,5),$F$1:$G$5,2,0)</f>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" ref="D131:D142" ca="1" si="5">RANDBETWEEN(1000,10000)</f>
-        <v>4871</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,15 +2572,15 @@
         <v>44885</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Galpao B</v>
+        <v>Fabrica X</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5052</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,15 +2588,15 @@
         <v>44886</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica J</v>
+        <v>Galpao C</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8008</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,15 +2604,15 @@
         <v>44887</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica X</v>
+        <v>Fabrica J</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6233</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,15 +2620,15 @@
         <v>44888</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3352</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,15 +2636,15 @@
         <v>44889</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Galpao C</v>
+        <v>Galpao B</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8431</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,15 +2652,15 @@
         <v>44890</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica E</v>
+        <v>Galpao B</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9505</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2668,7 @@
         <v>44891</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2667,7 +2676,7 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7993</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,15 +2684,15 @@
         <v>44892</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica J</v>
+        <v>Galpao B</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8819</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,15 +2700,15 @@
         <v>44893</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica E</v>
+        <v>Galpao C</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3504</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,15 +2716,15 @@
         <v>44894</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica J</v>
+        <v>Galpao C</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2808</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,15 +2732,15 @@
         <v>44895</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fabrica X</v>
+        <v>Fabrica E</v>
       </c>
       <c r="D142" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5669</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
